--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/4.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/4.xlsx
@@ -479,13 +479,13 @@
         <v>-14.98800995396465</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.02277269406008</v>
+        <v>-9.052112544728388</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.905800052651668</v>
+        <v>-2.895391671892495</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.570764480690692</v>
+        <v>-5.598258316658317</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-15.00858322635582</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.300159314367729</v>
+        <v>-9.330337072417908</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.929628043823609</v>
+        <v>-2.91180941965602</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.504242489951882</v>
+        <v>-5.531919618159291</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-15.03209684593758</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.12510531642489</v>
+        <v>-10.15591150501147</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.794214355531636</v>
+        <v>-2.774209316789479</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.374183553522175</v>
+        <v>-5.402908065956923</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-15.02531145372528</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.88926375638792</v>
+        <v>-10.91891782232442</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.72119858258333</v>
+        <v>-2.704715373305597</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.599214054765763</v>
+        <v>-5.628868120702273</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-14.97279647093026</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.6904341364845</v>
+        <v>-11.72392424715363</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.564509902173552</v>
+        <v>-2.545355863116107</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.141415501299128</v>
+        <v>-5.168883152661069</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-14.8550442472242</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.37775385106944</v>
+        <v>-12.41289359189663</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.544229925071719</v>
+        <v>-2.5252722705569</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.241414510404232</v>
+        <v>-5.266198239683619</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-14.66561571195423</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.90629011678992</v>
+        <v>-12.94483385635596</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.424055677287515</v>
+        <v>-2.407009498987588</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.781416450060186</v>
+        <v>-4.805283718140653</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-14.40928900547066</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.87513361938049</v>
+        <v>-13.91425342027156</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.176755168910152</v>
+        <v>-2.161895405184793</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.660495941014004</v>
+        <v>-4.679100103352097</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-14.10357977103237</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.639004028681</v>
+        <v>-14.68062445941484</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.160651636414828</v>
+        <v>-2.145176534455908</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.256690044466647</v>
+        <v>-4.273461284406898</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-13.78087743465569</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.30699950427154</v>
+        <v>-15.34707504327007</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.988422392531922</v>
+        <v>-1.970499029941599</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.035024265053383</v>
+        <v>-4.049347244362231</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-13.47882684275443</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.95954606250885</v>
+        <v>-16.00044641658641</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.021454272601597</v>
+        <v>-2.008283415942821</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.521779809052037</v>
+        <v>-3.535880219212577</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-13.22956603405588</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.92579728913676</v>
+        <v>-16.96602993576938</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.828748667074231</v>
+        <v>-1.813744888017613</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.88199824608541</v>
+        <v>-2.89459304141915</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-13.06126638049542</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.54029761531602</v>
+        <v>-17.57905083172752</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.571956239136616</v>
+        <v>-1.557659444433451</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.524800947654597</v>
+        <v>-2.537762327467906</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-12.98067908433905</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.4395817129085</v>
+        <v>-18.47986672875249</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.428032553997521</v>
+        <v>-1.415424666360939</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.955822558456024</v>
+        <v>-1.969386184200052</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-12.97545419901878</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.33327539718756</v>
+        <v>-19.37265704413547</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.267926782546053</v>
+        <v>-1.2544809875276</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.547683109668056</v>
+        <v>-1.559348351500034</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-13.01565920166518</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.12861970251958</v>
+        <v>-20.16891781066641</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.043171219662142</v>
+        <v>-1.031728546978473</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.038104498462394</v>
+        <v>-1.050529093859192</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-13.05994948824106</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.08715956277371</v>
+        <v>-21.12548073319144</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9608730039990517</v>
+        <v>-0.9503206079086205</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6712058036258625</v>
+        <v>-0.6829626915777325</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-13.06656419809845</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.9228150685554</v>
+        <v>-21.96057326995094</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8185596721094893</v>
+        <v>-0.8097747369026911</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2995546028577845</v>
+        <v>-0.3123457827341509</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-13.00366408813655</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.56648504546602</v>
+        <v>-22.60580123089973</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5736550551521615</v>
+        <v>-0.5667423192517301</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0692424758907971</v>
+        <v>0.05713209576220048</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-12.84889927723224</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.18890621486452</v>
+        <v>-23.22756778515614</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.283045208974368</v>
+        <v>-0.2769441958501236</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4137533328679768</v>
+        <v>0.4038162750111068</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-12.59866044290801</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.83289040704334</v>
+        <v>-23.87400023796636</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.07098917984693082</v>
+        <v>-0.06893368830077982</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4637266528148453</v>
+        <v>0.4617366227829029</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-12.26285078816476</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.30135918732599</v>
+        <v>-24.33882935805901</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02186143190659046</v>
+        <v>0.02135083209576314</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7169317897738274</v>
+        <v>0.7137765447889715</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-11.86207103955534</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.67757960178582</v>
+        <v>-24.71511523403305</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.005409834912724946</v>
+        <v>-0.006575049865638566</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6822110026375698</v>
+        <v>0.6842926787894044</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-11.42895887371077</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.9594306973625</v>
+        <v>-24.99755548323761</v>
       </c>
       <c r="F25" t="n">
-        <v>0.285802257195788</v>
+        <v>0.2838645963752126</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6581080731059522</v>
+        <v>0.6584746575855205</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-10.99595779383903</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.96485091073898</v>
+        <v>-25.00360412715049</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2895859327170468</v>
+        <v>0.2877006411078383</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5165148178726847</v>
+        <v>0.5197748012802745</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.59037869392107</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.92176414208686</v>
+        <v>-24.95863206688916</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09609478901917726</v>
+        <v>0.09341086693662341</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5042080532014622</v>
+        <v>0.5071145444323254</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-10.23239147207199</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.00686411055808</v>
+        <v>-25.04234425125916</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2491569015417967</v>
+        <v>0.2503613934032355</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2052715024163309</v>
+        <v>0.2088718856978056</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-9.930945100158526</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.05482121586732</v>
+        <v>-25.09081195637922</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2163737752261146</v>
+        <v>0.2171462210937765</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1048666319231337</v>
+        <v>0.1093311071921623</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.685959380417295</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.84328887885355</v>
+        <v>-24.88099471103772</v>
       </c>
       <c r="F30" t="n">
-        <v>0.07394261261097676</v>
+        <v>0.07518638138094073</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.08012760723045562</v>
+        <v>-0.07440627088862133</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.496065924681774</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.37561872904426</v>
+        <v>-24.41147854652774</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07869511854252331</v>
+        <v>0.07970322586133623</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.5792585607684202</v>
+        <v>-0.5763782541432405</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.352879913142637</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.42335326520519</v>
+        <v>-24.45906906735742</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1309595914866938</v>
+        <v>0.1310643299094276</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7008860541680554</v>
+        <v>-0.7004409158714368</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.247700598792379</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.02773005793391</v>
+        <v>-24.06353750620603</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06494820055871095</v>
+        <v>0.06596940018036558</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.204127990798322</v>
+        <v>-1.206903559000768</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.170693365597538</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.43921795289548</v>
+        <v>-23.47396492463742</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.05123289485876618</v>
+        <v>-0.04582577378513332</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.27799476343134</v>
+        <v>-1.279487285955297</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.111890461856845</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.08005680903841</v>
+        <v>-23.11236861245179</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2462296533834342</v>
+        <v>-0.239644225054046</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.355946334550977</v>
+        <v>-1.362047347675222</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.066033229006912</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.34246265154125</v>
+        <v>-22.37381871684718</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.3594780729643647</v>
+        <v>-0.3530104753605521</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.545627618121905</v>
+        <v>-1.549646955094315</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-9.031234433411043</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.54438205491531</v>
+        <v>-21.57639273536333</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.2996331566748349</v>
+        <v>-0.2933095744022812</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.677021969441468</v>
+        <v>-1.683620490073698</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-9.005022738144392</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.16770340985601</v>
+        <v>-21.19945224424719</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.377388343251846</v>
+        <v>-0.3725180065947239</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.935228366085989</v>
+        <v>-1.94282190173419</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-8.986294330801956</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.51431894423683</v>
+        <v>-20.54598922481096</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2355463342645858</v>
+        <v>-0.2332813658729672</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.10210285810663</v>
+        <v>-2.112720715711269</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-8.9699775250372</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.16677067300037</v>
+        <v>-20.19528570858965</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.4894846401827046</v>
+        <v>-0.4823362428311221</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.320272992661153</v>
+        <v>-2.330655188814641</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.946451863548415</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.6166844768024</v>
+        <v>-19.64534352772294</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2181204791822484</v>
+        <v>-0.2142582498439392</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.180879244305296</v>
+        <v>-2.194599977683424</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.908645302606651</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.04921170243063</v>
+        <v>-19.07518683126861</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01718747979209425</v>
+        <v>0.02038200168547541</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.225851304566624</v>
+        <v>-2.245686143371839</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.850989207275763</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.15401240332477</v>
+        <v>-18.17985660913433</v>
       </c>
       <c r="F43" t="n">
-        <v>0.03173302824925191</v>
+        <v>0.03831845657864012</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.140672782278354</v>
+        <v>-2.162733312566663</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.773360517161718</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.81552400565478</v>
+        <v>-17.84045175026543</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06434595462799154</v>
+        <v>0.06921629128511364</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.334451956638742</v>
+        <v>-2.358541793867518</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-8.678622574639743</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.27011176157131</v>
+        <v>-17.29179261507721</v>
       </c>
       <c r="F45" t="n">
-        <v>0.03784713367633798</v>
+        <v>0.04334590086986293</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.39284362731284</v>
+        <v>-2.419276986750285</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-8.568037594681542</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.83885130596486</v>
+        <v>-16.85467990010051</v>
       </c>
       <c r="F46" t="n">
-        <v>0.08905113009032864</v>
+        <v>0.09894891103867355</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.305229936696009</v>
+        <v>-2.329018650959426</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-8.444010003988662</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.20408409498661</v>
+        <v>-16.22123501170927</v>
       </c>
       <c r="F47" t="n">
-        <v>0.09327994390820615</v>
+        <v>0.0990274648557239</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.636988890705348</v>
+        <v>-2.663409157839951</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.31426655992459</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.54454624703182</v>
+        <v>-15.56252197883351</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09334540542241479</v>
+        <v>0.1040549091469467</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.553918229174596</v>
+        <v>-2.578191358643156</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.187279121878168</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.97788519543623</v>
+        <v>-14.99117388282058</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2091730086631653</v>
+        <v>0.2153132986959349</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.784264205371925</v>
+        <v>-2.814167025062427</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.07404568180781</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.2993504160581</v>
+        <v>-14.31568961000457</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3463672501416128</v>
+        <v>0.3513292329186269</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.747186803724156</v>
+        <v>-2.779197484172176</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.980971333663089</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.49850734353255</v>
+        <v>-13.51373369173748</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3436178665448503</v>
+        <v>0.3490118953156415</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.835716955539908</v>
+        <v>-2.870843604064259</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.910576436965508</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.89353821382208</v>
+        <v>-12.90740296253146</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4246984980436598</v>
+        <v>0.430092526814451</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.82117140708275</v>
+        <v>-2.852815503051203</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.865915607238597</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.26053846372746</v>
+        <v>-12.27402353565444</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4791886624709237</v>
+        <v>0.4851063833553839</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.861338592201166</v>
+        <v>-2.895247656561236</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.848603674605601</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.88078312750035</v>
+        <v>-11.89426819942733</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3791503764572949</v>
+        <v>0.3859060047236255</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.983686162257096</v>
+        <v>-3.019467425923533</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.858058193496266</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.38231988140732</v>
+        <v>-11.39280681598354</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1393517576082402</v>
+        <v>0.1479010313638873</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.460298354907292</v>
+        <v>-3.493958665513369</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.894582635108028</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.97086808000039</v>
+        <v>-10.98250713722669</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2025221188195685</v>
+        <v>0.2071437017226978</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.545005554293259</v>
+        <v>-3.580250033543186</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.957395167938204</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.20614667101517</v>
+        <v>-10.21795592817841</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1580344737633833</v>
+        <v>0.1647901020297139</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.916997154935222</v>
+        <v>-3.954467325668242</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.045527717146559</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.911870980041696</v>
+        <v>-9.924963282883423</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.0112620942829765</v>
+        <v>-0.002948481978480445</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.938533993109862</v>
+        <v>-3.975860148511623</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.16204209161493</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.333217379043088</v>
+        <v>-9.342958052357332</v>
       </c>
       <c r="F59" t="n">
-        <v>0.05887337204015005</v>
+        <v>0.06628361544856701</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.225700563640281</v>
+        <v>-4.263380211218769</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.307647343391929</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.998329364654577</v>
+        <v>-9.011212190650836</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.06539876653351379</v>
+        <v>-0.05743864640574434</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.142891748166364</v>
+        <v>-4.180152442053917</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.483690403160118</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.459829856471542</v>
+        <v>-8.471756944360354</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.09048361877826094</v>
+        <v>-0.08254968325617494</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.537467571210304</v>
+        <v>-4.573471404025051</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.688069303701923</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.974380359403181</v>
+        <v>-7.987092985462497</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.05205770993779493</v>
+        <v>-0.04464746652937798</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.523052945781564</v>
+        <v>-4.562905915631778</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.915142797950558</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.509760716156006</v>
+        <v>-7.52358618795687</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.066105750886967</v>
+        <v>-0.05678403126365804</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.514372748997499</v>
+        <v>-4.552196411907246</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.159512128402568</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.177019839433538</v>
+        <v>-7.193057910414653</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2295369672602335</v>
+        <v>-0.2199141246715648</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.721610810679182</v>
+        <v>-4.756776736112058</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.416809634792362</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.798023856771252</v>
+        <v>-6.813158558856288</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.1800873394270341</v>
+        <v>-0.1717475425168546</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.984897020826293</v>
+        <v>-5.018243116164169</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.680028906553778</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.549374841201191</v>
+        <v>-6.564601189406118</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.2862135462620656</v>
+        <v>-0.2761848422853035</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.960335860695214</v>
+        <v>-4.992713125622803</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.94573487489073</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.39781834350537</v>
+        <v>-6.414105168240477</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.360564734100228</v>
+        <v>-0.3525129678525665</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.053121010934527</v>
+        <v>-5.082892907596612</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.20752295739342</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.124136844901928</v>
+        <v>-6.141248484716064</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3194287185715247</v>
+        <v>-0.3104866757306258</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.058698331945102</v>
+        <v>-5.090015120342511</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.45766860149568</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.989691987020243</v>
+        <v>-6.007013103679847</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.5792323761627368</v>
+        <v>-0.5715341020918019</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.121423554859812</v>
+        <v>-5.148812652404703</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.69145944370156</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.795362935940503</v>
+        <v>-5.81551199001392</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5253575499690341</v>
+        <v>-0.515800168894574</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.961448706436761</v>
+        <v>-4.987463112183271</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.90297359885633</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.684523500082451</v>
+        <v>-5.706479291948025</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.5976139693525202</v>
+        <v>-0.5867211733882041</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.911789601758094</v>
+        <v>-4.935028439302158</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-11.08744453039252</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.697026649296299</v>
+        <v>-5.721928209301262</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7130880804165441</v>
+        <v>-0.7044602528438466</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.780827296432308</v>
+        <v>-4.801212011956876</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-11.24164296523568</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.744420785583347</v>
+        <v>-5.769806760793454</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.7464341757544204</v>
+        <v>-0.7377670712731977</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.583002600493828</v>
+        <v>-4.603007639235985</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-11.36303256934822</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.978628991118985</v>
+        <v>-6.002889028284703</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.6331726638706482</v>
+        <v>-0.6227904677171594</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.442496006396423</v>
+        <v>-4.460615753529372</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-11.45149497812479</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.188276036523544</v>
+        <v>-6.21388458088196</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.9768325211631158</v>
+        <v>-0.9670394786375046</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.272178238728409</v>
+        <v>-4.289839755261897</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-11.51119807758961</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.674707456305034</v>
+        <v>-6.6964406790223</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9018398104857088</v>
+        <v>-0.8940237056891984</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.098155349356186</v>
+        <v>-4.115083696930538</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-11.54398023219228</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.125488535448505</v>
+        <v>-7.144982974379835</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.9606373425479006</v>
+        <v>-0.9525724839973974</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.015909502904463</v>
+        <v>-4.030860912749714</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-11.5538166589965</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.710203872662833</v>
+        <v>-7.730496942067508</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.019094474736207</v>
+        <v>-1.009524001358906</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.646182870654119</v>
+        <v>-3.663922941004658</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-11.54159574859613</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.131893854891988</v>
+        <v>-8.152998647072851</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.9894535011025397</v>
+        <v>-0.9810089657696264</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.466438644940061</v>
+        <v>-3.485304653334989</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-11.50460516290259</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.600833958076931</v>
+        <v>-8.621467427355492</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.183468336914078</v>
+        <v>-1.172078033441777</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.096293058998782</v>
+        <v>-3.113640360264069</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-11.44154206718882</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.506533284061858</v>
+        <v>-9.522793924191282</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.115741854313829</v>
+        <v>-1.108187595574153</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.090715737988207</v>
+        <v>-3.10917588499504</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-11.35107858640162</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.29310574648992</v>
+        <v>-10.30682647986805</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.20297586814825</v>
+        <v>-1.194688440449438</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.895208379652711</v>
+        <v>-2.911717773536128</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-11.23193944670201</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.10875621352945</v>
+        <v>-11.12001559397334</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.315517303375727</v>
+        <v>-1.307020398831447</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.541820941348842</v>
+        <v>-2.560032334601682</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-11.08698912864708</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.30773621547188</v>
+        <v>-12.31762090411739</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.395904042823926</v>
+        <v>-1.38774753815353</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.399154117282552</v>
+        <v>-2.413634204225501</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-10.91948840468278</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.18526090574142</v>
+        <v>-13.19323411817203</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.478948519748994</v>
+        <v>-1.469993384605253</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.064239918288358</v>
+        <v>-2.078445066871631</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-10.7316729363145</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.35145778136816</v>
+        <v>-14.35860617871975</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.65967466817618</v>
+        <v>-1.647328626596433</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.812789149910167</v>
+        <v>-1.825593422089375</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-10.53021172276644</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42294493823787</v>
+        <v>-15.42680716757618</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.709019557586646</v>
+        <v>-1.696202193104596</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.401874132919753</v>
+        <v>-1.415516312480831</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-10.31862369739736</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.8056361336554</v>
+        <v>-16.80775708671576</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.688765765090496</v>
+        <v>-1.674285678147547</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.085276065601133</v>
+        <v>-1.099049168190629</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-10.1000249485673</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.46475821127314</v>
+        <v>-18.46360608862306</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.928839322299227</v>
+        <v>-1.91437232765912</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.8867705699148821</v>
+        <v>-0.9006745955327952</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-9.875891292976583</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.04643931758206</v>
+        <v>-20.04215813455282</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.137844844864542</v>
+        <v>-2.122199542968679</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.5895098338934918</v>
+        <v>-0.6024319367982753</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-9.645286602971407</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.84191772929638</v>
+        <v>-21.83386596304871</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.326190713545613</v>
+        <v>-2.308620843132017</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.7320719195370469</v>
+        <v>-0.7439597305173342</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-9.409245062273024</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.52691019732936</v>
+        <v>-23.51479981720076</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.420821878485609</v>
+        <v>-2.403016346620861</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.5418145746410837</v>
+        <v>-0.5522098630974142</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-9.172944741506496</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.60641302689208</v>
+        <v>-25.59326835483899</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.579552958138696</v>
+        <v>-2.561721241668265</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.5364074535674508</v>
+        <v>-0.5467634651152561</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-8.941618173071724</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.82712943490566</v>
+        <v>-27.8098214105489</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.452348143728485</v>
+        <v>-2.433285750790932</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.6581396853898198</v>
+        <v>-0.6665187592085244</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-8.725373310290079</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.10961532772649</v>
+        <v>-30.09156104210776</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.927755844517242</v>
+        <v>-2.909020759150732</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.012509046406819</v>
+        <v>-1.019997843632287</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-8.531009259556445</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.30399002242252</v>
+        <v>-32.28642015200892</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.991489174750765</v>
+        <v>-2.970842613169363</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.258225386140334</v>
+        <v>-1.265687998760118</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.360668990758352</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.52505992261282</v>
+        <v>-34.50717583693103</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.337505646554743</v>
+        <v>-3.31624374673978</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.455055067062844</v>
+        <v>-1.46010869595975</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-8.213540725762995</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.04284068210516</v>
+        <v>-37.02527081169156</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.60060856446207</v>
+        <v>-3.57921574161869</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.869387175094949</v>
+        <v>-1.874178957935021</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-8.087110863308405</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.55541070506649</v>
+        <v>-39.53537948171865</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.539153294923008</v>
+        <v>-3.521177563121318</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.327054805533167</v>
+        <v>-2.330367158152124</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.971804535001843</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.11972150885833</v>
+        <v>-42.09898330115703</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.71324164580944</v>
+        <v>-3.694349452808829</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.661759527681894</v>
+        <v>-2.663068757966066</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.864817934956299</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.41011515259557</v>
+        <v>-44.39071235978413</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.964967352547307</v>
+        <v>-3.948130651092847</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.230410609309424</v>
+        <v>-3.228014717889388</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-7.751006297262312</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.75062613161094</v>
+        <v>-46.73334429185986</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.113080574595753</v>
+        <v>-4.095903473267409</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.549470029562288</v>
+        <v>-3.549286737322504</v>
       </c>
     </row>
   </sheetData>
